--- a/medicine/Mort/Jauhâr/Jauhâr.xlsx
+++ b/medicine/Mort/Jauhâr/Jauhâr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jauh%C3%A2r</t>
+          <t>Jauhâr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jauhâr  — parfois transcrit johur  — était une coutume râjpute de mort volontaire sur le bûcher funéraire suivie par les femmes des guerriers râjputs afin d'éviter la déportation et l'esclavage conduits par les musulmans à l'occasion de la défaite des villes ou des citadelles. Par extension, ce terme décrit la pratique du suicide de masse observée de 1300 à 1600 par les femmes râjputes aussi bien que par des communautés entières lorsque la prise d'une ville était jugée certaine. Lorsque l'issue du combat ne laissait aucun doute, les hommes — et tous ceux qui étaient en état de se battre — s'habillaient de safran et s'élançaient vers une mort certaine tandis que les membres du clan qui ne pouvaient se battre — femmes, enfants, vieillards et malades — se jetaient dans le feu. La pratique du jauhâr était glorifiée et de nombreux chants gardent le souvenir de ces sacrifices.
 Le jauhâr était réservé à la caste des Kshatriya Râjputs, la caste dirigeante du Rajputana — le Rajasthan de l'Inde actuelle — et des principautés voisines. Il était ignoré par le reste du sous-continent. Le reste de la population, les Brahmanes faisant eux aussi partie de la caste supérieure ainsi que les castes inférieures, ne pratiquait pas cette immolation car ils comptaient généralement survivre à la capture de la ville. Cependant, dans certains cas, comme à Chittorgârh en 1568, les vainqueurs exécutèrent toute la population.
@@ -488,7 +500,7 @@
 Les cas les plus célèbres de jauhâr eurent lieu au fort de Chittor au Rajasthan :
 en 1303, année où la rânî Padmini, l'épouse du rânâ Rattan Singh pratiqua le jauhâr pour échapper aux convoitises de Alâ ud-Dîn Khaljî ;
 en 1535, lors du siège du sultan Bahâdur Shâh du Goujerat où 13 000 femmes rajputes suivirent dans la mort 32 000 guerriers ;
-en 1568, lors du siège d'Akbar [1].
+en 1568, lors du siège d'Akbar .
 Cette pratique du jauhâr n'est pas directement liée à celle de la satī, même si, dans les deux cas, s'exprime le sens de l'honneur des femmes râjputes.
 </t>
         </is>
